--- a/VideoTracker Excel Sheet.xlsx
+++ b/VideoTracker Excel Sheet.xlsx
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,21 +267,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,9 +559,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23">
       <c r="A1" s="1" t="s">
@@ -621,22 +619,21 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="6">
-        <v>1.7638888888888891</v>
+      <c r="D3" s="8">
+        <v>2.9398148148148149E-2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7">
+      <c r="G3" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5">
@@ -646,22 +643,21 @@
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="10">
-        <v>0.9916666666666667</v>
+      <c r="D4" s="8">
+        <v>1.6527777777777777E-2</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7">
+      <c r="G4" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5">
@@ -671,22 +667,21 @@
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>4.5682870370370367E-2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7">
+      <c r="G5" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="5">
@@ -696,22 +691,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12">
-        <v>1.7111111111111112</v>
+      <c r="D6" s="8">
+        <v>2.8518518518518523E-2</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7">
+      <c r="G6" s="8">
         <v>0.125</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5">
@@ -721,22 +715,21 @@
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12">
-        <v>1.5173611111111109</v>
+      <c r="D7" s="8">
+        <v>2.5520833333333336E-2</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7">
+      <c r="G7" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -746,22 +739,21 @@
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>5.1793981481481483E-2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7">
+      <c r="G8" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -771,22 +763,21 @@
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>5.2280092592592593E-2</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="7">
+      <c r="G9" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
@@ -796,22 +787,21 @@
         <v>19</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12">
-        <v>2.3520833333333333</v>
+      <c r="D10" s="8">
+        <v>3.920138888888889E-2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7">
+      <c r="G10" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
@@ -821,22 +811,21 @@
         <v>21</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="12">
-        <v>1.6201388888888888</v>
+      <c r="D11" s="8">
+        <v>2.7002314814814812E-2</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7">
+      <c r="G11" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5">
@@ -846,22 +835,21 @@
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>4.2222222222222223E-2</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7">
+      <c r="G12" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -871,22 +859,21 @@
         <v>25</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="12">
-        <v>1.8916666666666666</v>
+      <c r="D13" s="8">
+        <v>3.1527777777777773E-2</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7">
+      <c r="G13" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5">
@@ -896,22 +883,21 @@
         <v>27</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="12">
-        <v>1.5680555555555555</v>
+      <c r="D14" s="8">
+        <v>2.613425925925926E-2</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7">
+      <c r="G14" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5">
@@ -921,22 +907,21 @@
         <v>29</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12">
-        <v>1.6055555555555554</v>
+      <c r="D15" s="8">
+        <v>2.6759259259259257E-2</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="7">
+      <c r="G15" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5">
@@ -946,22 +931,21 @@
         <v>31</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="12">
-        <v>1.6569444444444443</v>
+      <c r="D16" s="8">
+        <v>2.7615740740740743E-2</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7">
+      <c r="G16" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -971,22 +955,21 @@
         <v>33</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="12">
-        <v>1.7236111111111112</v>
+      <c r="D17" s="8">
+        <v>2.8726851851851851E-2</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="7">
+      <c r="G17" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5">
@@ -996,22 +979,21 @@
         <v>35</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="12">
-        <v>1.5930555555555557</v>
+      <c r="D18" s="8">
+        <v>2.6550925925925926E-2</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="7">
+      <c r="G18" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -1021,22 +1003,21 @@
         <v>36</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>5.8055555555555555E-2</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="7">
+      <c r="G19" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -1046,22 +1027,21 @@
         <v>38</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="12">
-        <v>2.1583333333333332</v>
+      <c r="D20" s="8">
+        <v>3.5972222222222218E-2</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="7">
+      <c r="G20" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1071,22 +1051,21 @@
         <v>40</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12">
-        <v>1.1354166666666667</v>
+      <c r="D21" s="8">
+        <v>1.892361111111111E-2</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="7">
+      <c r="G21" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5">
@@ -1096,22 +1075,21 @@
         <v>42</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="12">
-        <v>1.3180555555555555</v>
+      <c r="D22" s="8">
+        <v>2.1967592592592594E-2</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="7">
+      <c r="G22" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -1121,22 +1099,21 @@
         <v>44</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="12">
-        <v>2.2715277777777776</v>
+      <c r="D23" s="8">
+        <v>3.78587962962963E-2</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="7">
+      <c r="G23" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5">
@@ -1146,22 +1123,21 @@
         <v>46</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="12">
-        <v>1.3694444444444445</v>
+      <c r="D24" s="8">
+        <v>2.2824074074074076E-2</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="7">
+      <c r="G24" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -1171,22 +1147,21 @@
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="10">
-        <v>0.91527777777777775</v>
+      <c r="D25" s="8">
+        <v>1.5219907407407409E-2</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="7">
+      <c r="G25" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/VideoTracker Excel Sheet.xlsx
+++ b/VideoTracker Excel Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>SR No</t>
   </si>
@@ -188,6 +188,15 @@
       </rPr>
       <t xml:space="preserve">     Video Tracker</t>
     </r>
+  </si>
+  <si>
+    <t>Dates to Be Covered</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -235,12 +244,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,6 +289,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,19 +579,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23">
+    <row r="1" spans="1:15" ht="23">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -586,7 +610,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,8 +634,14 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -634,8 +664,14 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="9">
+        <v>45527</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -658,8 +694,14 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="9">
+        <v>45527</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -682,8 +724,14 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="9">
+        <v>45527</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -706,8 +754,14 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="9">
+        <v>45528</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -730,8 +784,11 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="9">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -754,8 +811,11 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="9">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -778,8 +838,11 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="9">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -802,8 +865,11 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="9">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -826,8 +892,11 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="9">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -850,8 +919,11 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="9">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -874,8 +946,11 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="9">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -898,8 +973,11 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="9">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -922,8 +1000,11 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="9">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -946,8 +1027,11 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="9">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -970,8 +1054,11 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="9">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -994,8 +1081,11 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="9">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1018,8 +1108,11 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="9">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1042,8 +1135,11 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="9">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1066,8 +1162,11 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="9">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1090,8 +1189,11 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="9">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1114,8 +1216,11 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="9">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1138,8 +1243,11 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1162,6 +1270,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
+      <c r="N25" s="9">
+        <v>45536</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
